--- a/base/Order_report/report_order_template.xlsx
+++ b/base/Order_report/report_order_template.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Номер счета</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Маркировка</t>
+  </si>
+  <si>
+    <t>Поставщик</t>
   </si>
 </sst>
 </file>
@@ -181,12 +184,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -200,6 +197,12 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -500,27 +503,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L12"/>
+  <dimension ref="B2:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="4" width="37.85546875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" style="12" customWidth="1"/>
+    <col min="2" max="4" width="37.85546875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="10" customWidth="1"/>
     <col min="7" max="7" width="42.28515625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="32.140625" style="13" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="13" customWidth="1"/>
-    <col min="10" max="10" width="3.7109375" customWidth="1"/>
-    <col min="11" max="11" width="43.7109375" customWidth="1"/>
-    <col min="12" max="12" width="24" customWidth="1"/>
+    <col min="8" max="8" width="32.140625" style="11" customWidth="1"/>
+    <col min="9" max="10" width="15.140625" style="11" customWidth="1"/>
+    <col min="11" max="11" width="3.7109375" customWidth="1"/>
+    <col min="12" max="12" width="43.7109375" customWidth="1"/>
+    <col min="13" max="13" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
         <v>10</v>
       </c>
@@ -532,13 +535,14 @@
       </c>
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="14" t="s">
+      <c r="J2" s="19"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="15"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="15"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -547,15 +551,16 @@
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="17"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J3" s="19"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="17"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -564,71 +569,74 @@
       <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="L4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="9"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="K5" s="8" t="s">
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="9"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="K6" s="8" t="s">
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="L6" s="9"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="K7" s="8" t="s">
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L7" s="9"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="K8" s="8" t="s">
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="9"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="K9" s="8"/>
-      <c r="L9" s="9"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="K10" s="8" t="s">
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L9" s="6"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="9"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="K11" s="8" t="s">
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="9"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="K12" s="8" t="s">
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="9"/>
+      <c r="M12" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="L2:M3"/>
     <mergeCell ref="B2:E3"/>
-    <mergeCell ref="G2:I3"/>
+    <mergeCell ref="G2:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/base/Order_report/report_order_template.xlsx
+++ b/base/Order_report/report_order_template.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Номер счета</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Поставщик</t>
+  </si>
+  <si>
+    <t>Назначение</t>
   </si>
 </sst>
 </file>
@@ -503,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M12"/>
+  <dimension ref="B2:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,13 +520,13 @@
     <col min="6" max="6" width="4.42578125" style="10" customWidth="1"/>
     <col min="7" max="7" width="42.28515625" style="4" customWidth="1"/>
     <col min="8" max="8" width="32.140625" style="11" customWidth="1"/>
-    <col min="9" max="10" width="15.140625" style="11" customWidth="1"/>
-    <col min="11" max="11" width="3.7109375" customWidth="1"/>
-    <col min="12" max="12" width="43.7109375" customWidth="1"/>
-    <col min="13" max="13" width="24" customWidth="1"/>
+    <col min="9" max="11" width="15.140625" style="11" customWidth="1"/>
+    <col min="12" max="12" width="3.7109375" customWidth="1"/>
+    <col min="13" max="13" width="43.7109375" customWidth="1"/>
+    <col min="14" max="14" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
         <v>10</v>
       </c>
@@ -536,13 +539,14 @@
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
       <c r="J2" s="19"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="14" t="s">
+      <c r="K2" s="19"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="15"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N2" s="15"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -552,11 +556,12 @@
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
       <c r="J3" s="19"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="17"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K3" s="19"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="17"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -581,62 +586,65 @@
       <c r="J4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="K4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="7"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="L5" s="6" t="s">
+      <c r="N4" s="7"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="7"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="L6" s="6" t="s">
+      <c r="N5" s="7"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="M6" s="7"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="L7" s="6" t="s">
+      <c r="N6" s="7"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="M7" s="7"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="L8" s="6" t="s">
+      <c r="N7" s="7"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="7"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="L9" s="6"/>
-      <c r="M9" s="7"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="L10" s="6" t="s">
+      <c r="N8" s="7"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M9" s="6"/>
+      <c r="N9" s="7"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M10" s="7"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="L11" s="6" t="s">
+      <c r="N10" s="7"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="M11" s="7"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="L12" s="6" t="s">
+      <c r="N11" s="7"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="L2:M3"/>
+    <mergeCell ref="M2:N3"/>
     <mergeCell ref="B2:E3"/>
-    <mergeCell ref="G2:J3"/>
+    <mergeCell ref="G2:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
